--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Slitrk3-Ptprs.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Slitrk3-Ptprs.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.618716333333333</v>
+        <v>2.425633666666667</v>
       </c>
       <c r="N2">
-        <v>7.856148999999998</v>
+        <v>7.276901000000001</v>
       </c>
       <c r="O2">
-        <v>0.07115908183301339</v>
+        <v>0.0662600404061536</v>
       </c>
       <c r="P2">
-        <v>0.07115908183301338</v>
+        <v>0.06626004040615362</v>
       </c>
       <c r="Q2">
-        <v>1.655569051136778</v>
+        <v>1.533500966413222</v>
       </c>
       <c r="R2">
-        <v>14.900121460231</v>
+        <v>13.801508697719</v>
       </c>
       <c r="S2">
-        <v>0.07115908183301339</v>
+        <v>0.0662600404061536</v>
       </c>
       <c r="T2">
-        <v>0.07115908183301338</v>
+        <v>0.06626004040615362</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,22 +620,22 @@
         <v>46.509849</v>
       </c>
       <c r="O3">
-        <v>0.4212748702999519</v>
+        <v>0.4234968256437875</v>
       </c>
       <c r="P3">
-        <v>0.4212748702999519</v>
+        <v>0.4234968256437876</v>
       </c>
       <c r="Q3">
         <v>9.801273700059001</v>
       </c>
       <c r="R3">
-        <v>88.21146330053099</v>
+        <v>88.21146330053101</v>
       </c>
       <c r="S3">
-        <v>0.4212748702999519</v>
+        <v>0.4234968256437875</v>
       </c>
       <c r="T3">
-        <v>0.4212748702999519</v>
+        <v>0.4234968256437876</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,16 +676,16 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.67887366666666</v>
+        <v>18.67887366666667</v>
       </c>
       <c r="N4">
-        <v>56.036621</v>
+        <v>56.03662100000001</v>
       </c>
       <c r="O4">
-        <v>0.5075660478670347</v>
+        <v>0.5102431339500588</v>
       </c>
       <c r="P4">
-        <v>0.5075660478670347</v>
+        <v>0.5102431339500588</v>
       </c>
       <c r="Q4">
         <v>11.80890223159989</v>
@@ -694,10 +694,10 @@
         <v>106.280120084399</v>
       </c>
       <c r="S4">
-        <v>0.5075660478670347</v>
+        <v>0.5102431339500588</v>
       </c>
       <c r="T4">
-        <v>0.5075660478670347</v>
+        <v>0.5102431339500588</v>
       </c>
     </row>
   </sheetData>
